--- a/routes/bufferdata/salesdata.xlsx
+++ b/routes/bufferdata/salesdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9780" activeTab="1"/>
+    <workbookView windowWidth="21045" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>省份</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>福建</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>新疆</t>
   </si>
   <si>
     <t>Count</t>
@@ -67,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -105,37 +114,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -159,59 +145,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,29 +256,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -263,19 +272,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +392,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,127 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,41 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,9 +492,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +516,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,6 +548,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,12 +1063,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1080,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1200</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1088,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>800</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1104,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1870</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1137,6 +1146,30 @@
       </c>
       <c r="B9">
         <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1183,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1165,24 +1198,24 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2">
         <f>COUNT(Data!B:B)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1190,7 +1223,7 @@
     <row r="4" s="1" customFormat="1"/>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
